--- a/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
+++ b/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CMV\GITHUB\Remise-C13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilio\OneDrive\Bureau\Programmation\Cours MD\GitExcel\Remise-C13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA7972E-9D38-41DB-8FB4-63B151F000FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFC09FF-8EDC-478B-9908-F74E19EA425C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{3C159071-64F9-4C92-9C3C-8A17E256B791}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3C159071-64F9-4C92-9C3C-8A17E256B791}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultat attendu" sheetId="1" r:id="rId1"/>
@@ -132,11 +132,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;_);\(#,##0.00\ &quot;$&quot;\)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;$&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;_);\(#,##0.00\ &quot;$&quot;\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -394,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -939,198 +940,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="7" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -1144,10 +1163,10 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1156,13 +1175,120 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="2" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1172,124 +1298,23 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="21" fillId="2" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="24" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="4" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="4" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1314,8 +1339,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEBE3E3"/>
       <color rgb="FFECF2F8"/>
-      <color rgb="FFEBE3E3"/>
+      <color rgb="FF0070C0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1463,7 +1489,7 @@
             <c:numRef>
               <c:f>'Résultat attendu'!$C$9:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00\ "$"</c:formatCode>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1988.5</c:v>
@@ -1531,7 +1557,7 @@
             <c:numRef>
               <c:f>'Résultat attendu'!$D$9:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00\ "$"</c:formatCode>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2897.35</c:v>
@@ -1599,7 +1625,7 @@
             <c:numRef>
               <c:f>'Résultat attendu'!$E$9:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00\ "$"</c:formatCode>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5223.25</c:v>
@@ -1667,7 +1693,7 @@
             <c:numRef>
               <c:f>'Résultat attendu'!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00\ "$"</c:formatCode>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7996.36</c:v>
@@ -1933,7 +1959,7 @@
             <c:numRef>
               <c:f>'Résultat attendu'!$C$18:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00\ "$"</c:formatCode>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12462.87</c:v>
@@ -1989,7 +2015,7 @@
             <c:numRef>
               <c:f>'Résultat attendu'!$D$18:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00\ "$"</c:formatCode>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>8256.9699999999993</c:v>
@@ -2045,7 +2071,7 @@
             <c:numRef>
               <c:f>'Résultat attendu'!$E$18:$E$20</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00\ "$"</c:formatCode>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>10884.65</c:v>
@@ -2101,7 +2127,7 @@
             <c:numRef>
               <c:f>'Résultat attendu'!$F$18:$F$20</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00\ "$"</c:formatCode>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>18995.599999999999</c:v>
@@ -2360,7 +2386,7 @@
             <c:numRef>
               <c:f>'Résultat attendu'!$C$25:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00\ "$"</c:formatCode>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-2040.6999999999971</c:v>
@@ -2474,6 +2500,3408 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ventes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 2009</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="200"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="40"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="accent2"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:contourClr>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="matte">
+          <a:contourClr>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="matte">
+          <a:contourClr>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13014099289193001"/>
+          <c:y val="0.16607208551275704"/>
+          <c:w val="0.55056700968870231"/>
+          <c:h val="0.62346464400872237"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Trimestre 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1988.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7832.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2337.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4336.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4E3-4C41-A0B6-DBFCF50955A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Trimestre 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2897.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8309.0499999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11299.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2137.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1790.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4E3-4C41-A0B6-DBFCF50955A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Trimestre 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$E$9:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5223.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4287.9799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8264.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1237.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1206.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E4E3-4C41-A0B6-DBFCF50955A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Trimestre 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$F$9:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7996.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9352.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13226.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3237.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1628.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E4E3-4C41-A0B6-DBFCF50955A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="130"/>
+        <c:shape val="box"/>
+        <c:axId val="1587342560"/>
+        <c:axId val="1587345472"/>
+        <c:axId val="1591471712"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1587342560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587345472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1587345472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587342560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5000"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1591471712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587345472"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="0070C0">
+            <a:alpha val="0"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43137"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76408087633856137"/>
+          <c:y val="0.12346305280135242"/>
+          <c:w val="0.22508333587100232"/>
+          <c:h val="0.25816193908349"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="dashDot"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Croissance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 2009</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13408060254587822"/>
+          <c:y val="0.17577142993610492"/>
+          <c:w val="0.83862650110929893"/>
+          <c:h val="0.71523037948610035"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+              <a:tailEnd type="diamond"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="sq" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+                <a:headEnd type="diamond"/>
+                <a:tailEnd type="diamond"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9BBE-4862-90A7-72762A0532D7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+                <a:headEnd type="diamond"/>
+                <a:tailEnd type="diamond"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9BBE-4862-90A7-72762A0532D7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+                <a:headEnd type="diamond"/>
+                <a:tailEnd type="diamond"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9BBE-4862-90A7-72762A0532D7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$C$24:$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trimestre 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trimestre 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Trimestre 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$C$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-2040.6999999999971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4760.260000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4410.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1936.1299999999974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BBE-4862-90A7-72762A0532D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1682038976"/>
+        <c:axId val="1682041056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1682038976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682041056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1682041056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682038976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="12700"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Dépense</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 2009</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="15"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d>
+          <a:contourClr>
+            <a:schemeClr val="bg1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="EBE3E3">
+            <a:alpha val="0"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13029578209269208"/>
+          <c:y val="0.17037749457265194"/>
+          <c:w val="0.80667153769605981"/>
+          <c:h val="0.6179787188637329"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d>
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$C$18:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12462.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2533.2399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8755.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4108-4D90-81DA-1CCF1C1DF63F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$D$18:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8256.9699999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5855.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7562.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4108-4D90-81DA-1CCF1C1DF63F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$E$18:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10884.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8525.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5221.5600000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4108-4D90-81DA-1CCF1C1DF63F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$F$18:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "$"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18995.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11253.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3256.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4108-4D90-81DA-1CCF1C1DF63F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1718292704"/>
+        <c:axId val="1718291456"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1718292704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718291456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1718291456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718292704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87236130417380575"/>
+          <c:y val="0.21965767015757937"/>
+          <c:w val="0.11072073154778553"/>
+          <c:h val="0.31638635918084479"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="95000"/>
+          <a:lumOff val="5000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:softEdge rad="0"/>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2567,6 +5995,119 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7854</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>164969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70810C25-0715-C004-2E9E-C618A0B13020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6047</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>41124</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC8E4E6-D0CF-01CE-E8CA-925DB87D37BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51031D49-BA4C-1DA1-4F37-CAD8DC59AF57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,40 +6451,40 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Q2"/>
     </sheetView>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="1"/>
+    <sheetView topLeftCell="A6" zoomScale="97" zoomScaleNormal="85" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
-    <col min="2" max="7" width="11.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" style="2" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="1.7109375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2" max="7" width="11.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" style="2" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="9.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="1.6640625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+    <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="2:17" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
@@ -2954,24 +6495,24 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
     </row>
     <row r="5" spans="2:17" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -2981,7 +6522,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2997,7 +6538,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:17" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +6642,7 @@
         <v>8951.24</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
@@ -3122,7 +6663,7 @@
         <v>8962.11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>0</v>
       </c>
@@ -3147,7 +6688,7 @@
         <v>103807.6</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3163,7 +6704,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
         <v>2</v>
       </c>
@@ -3225,7 +6766,7 @@
         <v>28167.059999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>16</v>
       </c>
@@ -3246,7 +6787,7 @@
         <v>24795.49</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
         <v>0</v>
       </c>
@@ -3271,7 +6812,7 @@
         <v>103562.64</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3287,7 +6828,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="47" t="s">
         <v>1</v>
       </c>
@@ -3307,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>0</v>
       </c>
@@ -3357,395 +6898,399 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="1">
-      <selection activeCell="C25" sqref="C25:G25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" zoomScaleNormal="85" workbookViewId="1">
+      <selection activeCell="B18" sqref="B18:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="59" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="93" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="9.109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:19" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="1:19" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="93"/>
+      <c r="B2" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="63"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="56"/>
     </row>
-    <row r="3" spans="1:19" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="63"/>
+    <row r="3" spans="1:19" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="56"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="96"/>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="80" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="63">
         <v>1988.5</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="63">
         <v>2897.35</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="64">
         <v>5223.25</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="65">
         <v>7996.36</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="66">
         <v>18105.46</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="63">
         <v>5215</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="63">
         <v>8309.0499999999993</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="64">
         <v>4287.9799999999996</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="65">
         <v>9352.64</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="66">
         <v>27164.67</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="63">
         <v>7832.97</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="63">
         <v>11299.87</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="64">
         <v>8264.81</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="65">
         <v>13226.47</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="66">
         <v>40624.120000000003</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="63">
         <v>2337.81</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="63">
         <v>2137.81</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="64">
         <v>1237.81</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="65">
         <v>3237.81</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="66">
         <v>8951.24</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="67">
         <v>4336.37</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="63">
         <v>1790.84</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="64">
         <v>1206.77</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="65">
         <v>1628.13</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="66">
         <v>8962.11</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="68">
         <v>21710.65</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="68">
         <v>26434.920000000002</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="69">
         <v>20220.620000000003</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="70">
         <v>35441.409999999996</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G14" s="71">
         <v>103807.6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:19" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:19" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="98" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="70" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="89" t="s">
+      <c r="G17" s="81" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="72">
         <v>12462.87</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="72">
         <v>8256.9699999999993</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="72">
         <v>10884.65</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="72">
         <v>18995.599999999999</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="73">
         <v>50600.09</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="72">
         <v>2533.2399999999998</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="72">
         <v>5855.47</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="72">
         <v>8525.14</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="72">
         <v>11253.21</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="74">
         <v>28167.059999999998</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="72">
         <v>8755.24</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="72">
         <v>7562.22</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="72">
         <v>5221.5600000000004</v>
       </c>
-      <c r="F20" s="80">
+      <c r="F20" s="72">
         <v>3256.47</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="74">
         <v>24795.49</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="75">
         <v>23751.35</v>
       </c>
-      <c r="D21" s="83">
+      <c r="D21" s="75">
         <v>21674.66</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="75">
         <v>24631.350000000002</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="76">
         <v>33505.279999999999</v>
       </c>
-      <c r="G21" s="85">
+      <c r="G21" s="77">
         <v>103562.64</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="96" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="92" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="93" t="s">
+      <c r="G24" s="83" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C25" s="85">
         <v>-2040.6999999999971</v>
       </c>
-      <c r="D25" s="98">
+      <c r="D25" s="86">
         <v>4760.260000000002</v>
       </c>
-      <c r="E25" s="97">
+      <c r="E25" s="85">
         <v>-4410.7299999999996</v>
       </c>
-      <c r="F25" s="98">
+      <c r="F25" s="86">
         <v>1936.1299999999974</v>
       </c>
-      <c r="G25" s="99">
+      <c r="G25" s="87">
         <v>244.96</v>
       </c>
     </row>
@@ -3758,11 +7303,13 @@
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B4:R5"/>
     <mergeCell ref="B2:R3"/>
     <mergeCell ref="A1:A1048576"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="C25:F25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -3771,6 +7318,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3781,9 +7329,9 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="63" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3798,27 +7346,27 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="48" customWidth="1"/>
     <col min="4" max="4" width="100" style="48" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="48" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="48"/>
+    <col min="5" max="5" width="1.6640625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="94" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -3826,25 +7374,25 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="57"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" s="57"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="57"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="51" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="57"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="53" t="s">
         <v>27</v>
       </c>
@@ -3853,7 +7401,7 @@
       <c r="C9" s="49"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="94" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="50" t="s">
@@ -3861,19 +7409,19 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="57"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="57"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="57"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="54" t="s">
         <v>23</v>
       </c>

--- a/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
+++ b/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
@@ -5,13 +5,12 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilio\OneDrive\Bureau\Programmation\Cours MD\GitExcel\Remise-C13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cvmqc-my.sharepoint.com/personal/e_ldilion_etu_cvm_qc_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFC09FF-8EDC-478B-9908-F74E19EA425C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{9D5D823B-4D27-429D-88C2-410535CD44B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A505677-EB1C-48F0-8442-3801E2D2E21E}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3C159071-64F9-4C92-9C3C-8A17E256B791}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultat attendu" sheetId="1" r:id="rId1"/>
@@ -139,7 +138,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;$&quot;"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -888,17 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="5" tint="-0.499984740745262"/>
       </left>
@@ -958,13 +946,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="5" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="5" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="7" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1196,9 +1241,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1226,18 +1268,12 @@
     <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="4" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="4" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="22" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1245,29 +1281,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1290,6 +1317,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -1298,23 +1343,47 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="168" fontId="23" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2631,11 +2700,7 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
         <a:scene3d>
@@ -2656,11 +2721,7 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
         <a:scene3d>
@@ -2682,10 +2743,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13014099289193001"/>
-          <c:y val="0.16607208551275704"/>
-          <c:w val="0.55056700968870231"/>
-          <c:h val="0.62346464400872237"/>
+          <c:x val="9.1643477184795111E-2"/>
+          <c:y val="0.38134721206394845"/>
+          <c:w val="0.71588007872833548"/>
+          <c:h val="0.4161625895802793"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -3010,12 +3071,16 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3069,7 +3134,11 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3350,10 +3419,13 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
+              <a:headEnd type="diamond"/>
               <a:tailEnd type="diamond"/>
             </a:ln>
             <a:effectLst/>
@@ -3370,7 +3442,9 @@
             <c:spPr>
               <a:ln w="28575" cap="sq" cmpd="sng">
                 <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
                 <a:miter lim="800000"/>
@@ -3394,7 +3468,9 @@
             <c:spPr>
               <a:ln w="28575" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
                 <a:round/>
@@ -3418,7 +3494,9 @@
             <c:spPr>
               <a:ln w="28575" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
                 <a:round/>
@@ -3482,7 +3560,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3503,7 +3580,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
@@ -3518,7 +3595,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3771,13 +3848,19 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
         <a:sp3d>
           <a:contourClr>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
           </a:contourClr>
         </a:sp3d>
       </c:spPr>
@@ -3815,9 +3898,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13029578209269208"/>
-          <c:y val="0.17037749457265194"/>
-          <c:w val="0.80667153769605981"/>
-          <c:h val="0.6179787188637329"/>
+          <c:y val="0.2627675443589938"/>
+          <c:w val="0.70183730717300974"/>
+          <c:h val="0.52558892222767428"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -3827,6 +3910,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Trimestre 1</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -3895,6 +3981,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Trimestre 2</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -3953,6 +4042,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Trimestre 3</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -4012,6 +4104,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Trimestre 4</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -4095,7 +4190,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="6350">
             <a:solidFill>
               <a:schemeClr val="bg1">
                 <a:lumMod val="50000"/>
@@ -4204,10 +4299,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.87236130417380575"/>
-          <c:y val="0.21965767015757937"/>
-          <c:w val="0.11072073154778553"/>
-          <c:h val="0.31638635918084479"/>
+          <c:x val="0.83133923553263711"/>
+          <c:y val="0.4413936768177994"/>
+          <c:w val="0.15174284518642242"/>
+          <c:h val="0.25171348787672998"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6091,16 +6186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109097</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>599243</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>54005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6448,12 +6543,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Q2"/>
     </sheetView>
-    <sheetView topLeftCell="A6" zoomScale="97" zoomScaleNormal="85" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
     <col min="2" max="7" width="11.5546875" style="2" customWidth="1"/>
@@ -6465,28 +6559,28 @@
     <col min="19" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="88" t="s">
+    <row r="1" spans="2:17" ht="3" customHeight="1"/>
+    <row r="2" spans="2:17" ht="21">
+      <c r="B2" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
     </row>
-    <row r="3" spans="2:17" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="3.6" customHeight="1">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6494,27 +6588,27 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="89" t="s">
+    <row r="4" spans="2:17">
+      <c r="B4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
     </row>
-    <row r="5" spans="2:17" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="3.6" customHeight="1">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -6522,7 +6616,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="10.8" thickBot="1">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -6530,7 +6624,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:17" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="3" customHeight="1" thickBot="1">
       <c r="B7" s="36"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6538,7 +6632,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:17" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="4" customFormat="1" ht="12" thickBot="1">
       <c r="B8" s="46" t="s">
         <v>7</v>
       </c>
@@ -6558,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17">
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
@@ -6579,7 +6673,7 @@
         <v>18105.46</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17">
       <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
@@ -6600,7 +6694,7 @@
         <v>27164.67</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17">
       <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
@@ -6621,7 +6715,7 @@
         <v>40624.120000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17">
       <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
@@ -6642,7 +6736,7 @@
         <v>8951.24</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="10.8" thickBot="1">
       <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
@@ -6663,7 +6757,7 @@
         <v>8962.11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="10.8" thickBot="1">
       <c r="B14" s="18" t="s">
         <v>0</v>
       </c>
@@ -6688,7 +6782,7 @@
         <v>103807.6</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="10.8" thickBot="1">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6696,7 +6790,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:17" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="3" customHeight="1" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6704,7 +6798,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="12" thickBot="1">
       <c r="B17" s="45" t="s">
         <v>2</v>
       </c>
@@ -6724,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
@@ -6745,7 +6839,7 @@
         <v>50600.09</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
@@ -6766,7 +6860,7 @@
         <v>28167.059999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="10.8" thickBot="1">
       <c r="B20" s="24" t="s">
         <v>16</v>
       </c>
@@ -6787,7 +6881,7 @@
         <v>24795.49</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="10.8" thickBot="1">
       <c r="B21" s="27" t="s">
         <v>0</v>
       </c>
@@ -6812,7 +6906,7 @@
         <v>103562.64</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="10.8" thickBot="1">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6820,7 +6914,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="3" customHeight="1" thickBot="1">
       <c r="B23" s="41"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6828,7 +6922,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="12" thickBot="1">
       <c r="B24" s="47" t="s">
         <v>1</v>
       </c>
@@ -6848,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="10.8" thickBot="1">
       <c r="B25" s="30" t="s">
         <v>0</v>
       </c>
@@ -6895,16 +6989,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" zoomScaleNormal="85" workbookViewId="1">
-      <selection activeCell="B18" sqref="B18:G20"/>
-    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="93" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="87" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
@@ -6917,99 +7008,99 @@
     <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:19" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="92" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1"/>
+    <row r="2" spans="1:19" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="87"/>
+      <c r="B2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
       <c r="S2" s="56"/>
     </row>
-    <row r="3" spans="1:19" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
+    <row r="3" spans="1:19" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
       <c r="S3" s="56"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="90" t="s">
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="B4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="100" t="s">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1"/>
+    <row r="7" spans="1:19" ht="6" customHeight="1" thickBot="1">
+      <c r="B7" s="88" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="101"/>
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="B8" s="89"/>
       <c r="C8" s="59" t="s">
         <v>3</v>
       </c>
@@ -7022,286 +7113,289 @@
       <c r="F8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="77" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="B9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="62">
         <v>1988.5</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="62">
         <v>2897.35</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>5223.25</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <v>7996.36</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="65">
         <v>18105.46</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="B10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="62">
         <v>5215</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="62">
         <v>8309.0499999999993</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="63">
         <v>4287.9799999999996</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="64">
         <v>9352.64</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="65">
         <v>27164.67</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="15" customHeight="1">
       <c r="B11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="62">
         <v>7832.97</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="62">
         <v>11299.87</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="63">
         <v>8264.81</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="64">
         <v>13226.47</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="65">
         <v>40624.120000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="62">
         <v>2337.81</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="62">
         <v>2137.81</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="63">
         <v>1237.81</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="64">
         <v>3237.81</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="65">
         <v>8951.24</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="66">
         <v>4336.37</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="62">
         <v>1790.84</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="63">
         <v>1206.77</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="64">
         <v>1628.13</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="65">
         <v>8962.11</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="B14" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="67">
         <v>21710.65</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="67">
         <v>26434.920000000002</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="68">
         <v>20220.620000000003</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="69">
         <v>35441.409999999996</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="70">
         <v>103807.6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:19" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="98" t="s">
+    <row r="15" spans="1:19" ht="13.2" customHeight="1" thickBot="1"/>
+    <row r="16" spans="1:19" ht="4.8" customHeight="1" thickBot="1">
+      <c r="B16" s="90" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="99"/>
-      <c r="C17" s="62" t="s">
+    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B17" s="91"/>
+      <c r="C17" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="78" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="78" t="s">
+    <row r="18" spans="2:7" ht="15" customHeight="1">
+      <c r="B18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="100">
         <v>12462.87</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="100">
         <v>8256.9699999999993</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="100">
         <v>10884.65</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="98">
         <v>18995.599999999999</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="71">
         <v>50600.09</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="78" t="s">
+    <row r="19" spans="2:7" ht="15" customHeight="1">
+      <c r="B19" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="100">
         <v>2533.2399999999998</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="100">
         <v>5855.47</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="100">
         <v>8525.14</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="98">
         <v>11253.21</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="72">
         <v>28167.059999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="78" t="s">
+    <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B20" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="100">
         <v>8755.24</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="100">
         <v>7562.22</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="100">
         <v>5221.5600000000004</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="98">
         <v>3256.47</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="72">
         <v>24795.49</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="79" t="s">
+    <row r="21" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B21" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="101">
         <v>23751.35</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="101">
         <v>21674.66</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="101">
         <v>24631.350000000002</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="73">
         <v>33505.279999999999</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="74">
         <v>103562.64</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:7" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="96" t="s">
+    <row r="22" spans="2:7" ht="15" customHeight="1" thickBot="1"/>
+    <row r="23" spans="2:7" ht="5.4" customHeight="1" thickBot="1">
+      <c r="B23" s="92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="82" t="s">
+    <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B24" s="93"/>
+      <c r="C24" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="83" t="s">
+      <c r="G24" s="80" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="84" t="s">
+    <row r="25" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B25" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="85">
+      <c r="C25" s="106">
         <v>-2040.6999999999971</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="107">
         <v>4760.260000000002</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="108">
         <v>-4410.7299999999996</v>
       </c>
-      <c r="F25" s="86">
+      <c r="F25" s="109">
         <v>1936.1299999999974</v>
       </c>
-      <c r="G25" s="87">
+      <c r="G25" s="96">
         <v>244.96</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:7" ht="15" customHeight="1">
+      <c r="C26" s="105"/>
+      <c r="D26" s="103"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" customHeight="1"/>
+    <row r="28" spans="2:7" ht="15" customHeight="1"/>
+    <row r="29" spans="2:7" ht="15" customHeight="1"/>
+    <row r="30" spans="2:7" ht="15" customHeight="1"/>
+    <row r="31" spans="2:7" ht="15" customHeight="1"/>
+    <row r="32" spans="2:7" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B4:R5"/>
@@ -7329,9 +7423,8 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
-    <sheetView zoomScale="63" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7344,9 +7437,8 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="48" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="48" customWidth="1"/>
@@ -7356,16 +7448,16 @@
     <col min="6" max="16384" width="9.109375" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="6" customHeight="1"/>
+    <row r="2" spans="2:4" ht="13.8">
       <c r="B2" s="95" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="95"/>
     </row>
-    <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="3" customHeight="1"/>
+    <row r="4" spans="2:4">
       <c r="C4" s="94" t="s">
         <v>19</v>
       </c>
@@ -7373,34 +7465,34 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4">
       <c r="C5" s="94"/>
       <c r="D5" s="51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="C6" s="94"/>
       <c r="D6" s="52" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="C7" s="94"/>
       <c r="D7" s="51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4">
       <c r="C8" s="94"/>
       <c r="D8" s="53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="3" customHeight="1">
       <c r="C9" s="49"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4">
       <c r="C10" s="94" t="s">
         <v>20</v>
       </c>
@@ -7408,25 +7500,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4">
       <c r="C11" s="94"/>
       <c r="D11" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4">
       <c r="C12" s="94"/>
       <c r="D12" s="52" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4">
       <c r="C13" s="94"/>
       <c r="D13" s="54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:4" ht="3" customHeight="1"/>
   </sheetData>
   <sheetProtection password="C7C0" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
@@ -7436,4 +7528,234 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb47f970db01455029df431765be63e4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36af26dbc36b6288b7ddae45b32d7e9e" ns3:_="" ns4:_="">
+    <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
+    <xsd:import namespace="22375818-dcd7-42e4-9660-6b33e030de66"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9de94308-2297-4d04-a77d-26fce9df9395" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="22375818-dcd7-42e4-9660-6b33e030de66" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BAE3A79-59BB-4D7C-BD96-17CAF23582BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
+    <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88C59C13-AF8A-41E4-8935-FB6A701F2376}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1574BDA-C93F-4EC9-AF6E-93C8A5579058}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
+    <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>